--- a/biology/Histoire de la zoologie et de la botanique/Rudolph_Martin_Anderson/Rudolph_Martin_Anderson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rudolph_Martin_Anderson/Rudolph_Martin_Anderson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolph Martin Anderson est un zoologiste canadien spécialisé sur les mammifères et les oiseaux, né le 30 juin 1876 dans le Comté de Winneshiek, Iowa et mort le 21 juin 1961 à Ottawa.
 Après des études dans l’Iowa, il travaille d’abord dans les rangs de l’armée des États-Unis d'Amérique puis comme ornithologue. Il s’installe alors au Canada et participe à une mission d’exploration de l’Alaska organisé par l’American Museum of Natural History de 1913 à 1916.
@@ -513,9 +525,11 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gouvernement canadien émit une pièce commémorative de l'expédition arctique dirigée par Andersen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement canadien émit une pièce commémorative de l'expédition arctique dirigée par Andersen.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Archives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a un fonds d'archives Rudolph Martin Anderson à Bibliothèque et Archives Canada[2]. Numéro de référence archivistique R6390.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a un fonds d'archives Rudolph Martin Anderson à Bibliothèque et Archives Canada. Numéro de référence archivistique R6390.
 </t>
         </is>
       </c>
